--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BSpUGBCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50321F0-A6F9-48AB-8C5A-98FD513AF3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65289C47-AA74-46A8-97F5-A5E75137C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Source:</t>
   </si>
@@ -247,6 +247,9 @@
   <si>
     <t>BPSpUGBCD BAU Percent Subsidy per Unit Grid Battery Capacity Deployed</t>
   </si>
+  <si>
+    <t>California</t>
+  </si>
 </sst>
 </file>
 
@@ -283,6 +286,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -487,7 +491,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -566,6 +570,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency 2" xfId="5" xr:uid="{81BD210F-5FF0-4880-8028-0DC76957F95F}"/>
@@ -918,20 +923,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="42">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,27 +950,27 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -977,8 +988,8 @@
   </sheetPr>
   <dimension ref="A1:AJ534"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="AC80" sqref="AC80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4598,31 +4609,33 @@
         <v>1</v>
       </c>
       <c r="Q75" s="37">
+        <v>1</v>
+      </c>
+      <c r="R75" s="37">
+        <v>1</v>
+      </c>
+      <c r="S75" s="37">
+        <v>1</v>
+      </c>
+      <c r="T75" s="37">
+        <v>1</v>
+      </c>
+      <c r="U75" s="37">
+        <v>1</v>
+      </c>
+      <c r="V75" s="37">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="W75" s="37">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="X75" s="37">
         <v>0.75</v>
       </c>
-      <c r="R75" s="37">
+      <c r="Y75" s="37">
         <v>0.5</v>
-      </c>
-      <c r="S75" s="37">
-        <v>0</v>
-      </c>
-      <c r="T75" s="37">
-        <v>0</v>
-      </c>
-      <c r="U75" s="37">
-        <v>0</v>
-      </c>
-      <c r="V75" s="37">
-        <v>0</v>
-      </c>
-      <c r="W75" s="37">
-        <v>0</v>
-      </c>
-      <c r="X75" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="37">
-        <v>0</v>
       </c>
       <c r="Z75" s="37">
         <v>0</v>
@@ -4639,7 +4652,7 @@
       <c r="AD75" s="37">
         <v>0</v>
       </c>
-      <c r="AE75" s="5"/>
+      <c r="AE75" s="37"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
@@ -5250,39 +5263,39 @@
       </c>
       <c r="P88" s="38">
         <f t="shared" si="5"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="Q88" s="38">
         <f t="shared" si="5"/>
-        <v>0.208125</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="R88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="S88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="T88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="U88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="V88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="W88" s="31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="X88" s="31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="Y88" s="31">
         <f t="shared" si="5"/>
@@ -22279,7 +22292,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="P2" sqref="P2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22450,57 +22463,57 @@
       </c>
       <c r="R2" s="2">
         <f>'Inflation Reduction Act'!P88</f>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="S2" s="2">
         <f>'Inflation Reduction Act'!Q88</f>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'Inflation Reduction Act'!R88</f>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'Inflation Reduction Act'!S88</f>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'Inflation Reduction Act'!T88</f>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'Inflation Reduction Act'!U88</f>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'Inflation Reduction Act'!V88</f>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'Inflation Reduction Act'!W88</f>
+        <v>0.31218750000000001</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>'Inflation Reduction Act'!X88</f>
         <v>0.208125</v>
       </c>
-      <c r="T2">
-        <f>'Inflation Reduction Act'!R88</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>'Inflation Reduction Act'!S88</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f>'Inflation Reduction Act'!T88</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>'Inflation Reduction Act'!U88</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f>'Inflation Reduction Act'!V88</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>'Inflation Reduction Act'!W88</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f>'Inflation Reduction Act'!X88</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="AA2" s="2">
         <f>'Inflation Reduction Act'!Y88</f>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="2">
         <f>'Inflation Reduction Act'!Z88</f>
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="2">
         <f>'Inflation Reduction Act'!AA88</f>
         <v>0</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="2">
         <f>'Inflation Reduction Act'!AB88</f>
         <v>0</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="2">
         <f>'Inflation Reduction Act'!AC88</f>
         <v>0</v>
       </c>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65289C47-AA74-46A8-97F5-A5E75137C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CEF33A0-661E-4BE9-BEFF-606BC9287B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="885" windowWidth="19965" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -939,7 +939,7 @@
         <v>64</v>
       </c>
       <c r="C1" s="42">
-        <v>45528</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,8 +988,8 @@
   </sheetPr>
   <dimension ref="A1:AJ534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="AC80" sqref="AC80"/>
+    <sheetView topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4615,27 +4615,25 @@
         <v>1</v>
       </c>
       <c r="S75" s="37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T75" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75" s="37">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75" s="37">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75" s="37">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z75" s="37">
         <v>0</v>
@@ -5271,31 +5269,31 @@
       </c>
       <c r="R88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="S88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0.208125</v>
       </c>
       <c r="T88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="U88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="V88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="W88" s="31">
         <f t="shared" si="5"/>
-        <v>0.31218750000000001</v>
+        <v>0</v>
       </c>
       <c r="X88" s="31">
         <f t="shared" si="5"/>
-        <v>0.208125</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="31">
         <f t="shared" si="5"/>
@@ -22471,31 +22469,31 @@
       </c>
       <c r="T2" s="2">
         <f>'Inflation Reduction Act'!R88</f>
-        <v>0.41625000000000001</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'Inflation Reduction Act'!S88</f>
-        <v>0.41625000000000001</v>
+        <v>0.208125</v>
       </c>
       <c r="V2" s="2">
         <f>'Inflation Reduction Act'!T88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2">
         <f>'Inflation Reduction Act'!U88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2">
         <f>'Inflation Reduction Act'!V88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2">
         <f>'Inflation Reduction Act'!W88</f>
-        <v>0.31218750000000001</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="2">
         <f>'Inflation Reduction Act'!X88</f>
-        <v>0.208125</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2">
         <f>'Inflation Reduction Act'!Y88</f>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BPSpUGBCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CEF33A0-661E-4BE9-BEFF-606BC9287B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B12ED1-AB15-4AB1-8E79-3D118EA1D7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="885" windowWidth="19965" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Source:</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>BPSpUGBCD BAU Percent Subsidy per Unit Grid Battery Capacity Deployed</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -570,7 +567,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency 2" xfId="5" xr:uid="{81BD210F-5FF0-4880-8028-0DC76957F95F}"/>
@@ -923,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -931,18 +927,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="42">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,27 +940,27 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
